--- a/drg/DRG-klasifikace-XPath.xlsx
+++ b/drg/DRG-klasifikace-XPath.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoa\Desktop\Diplomka\data\drg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoa\Documents\diplomka\drg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735AAC29-813D-4142-A5B0-D550BF9B7B67}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA154CDF-5DBD-4FBE-AD31-602C789E8B49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="924" windowWidth="21600" windowHeight="11328" xr2:uid="{6F41D80A-DF8D-4D9E-B3AA-0F2DB9AFD36D}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{6F41D80A-DF8D-4D9E-B3AA-0F2DB9AFD36D}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={4DC590FA-333E-4846-9ABA-03F7D3145F8D}</author>
+  </authors>
+  <commentList>
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{4DC590FA-333E-4846-9ABA-03F7D3145F8D}">
+      <text>
+        <t>[Komentář ve vlákně]
+Vaše verze aplikace Excel vám umožňuje číst tento komentář ve vlákně, ale jakékoli jeho úpravy se odeberou, pokud se soubor otevře v novější verzi aplikace Excel. Další informace: https://go.microsoft.com/fwlink/?linkid=870924
+Komentář:
+    1000 - list of modalities</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Xpath</t>
   </si>
@@ -45,111 +63,30 @@
     <t>Title Klasifikační systém CZ-DRG</t>
   </si>
   <si>
-    <t>/html/body/div[2]/div</t>
-  </si>
-  <si>
     <t>https://drg.uzis.cz/klasifikace-pripadu/web/definicni-manual/mdc/</t>
   </si>
   <si>
-    <t>/html/body/div[6]/div/ul</t>
-  </si>
-  <si>
-    <t>Names of MDCs</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div/div[1]/div[1]/h1</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div/table</t>
-  </si>
-  <si>
-    <t>Classification tree</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div/div[2]/div[1]/div/div/ul</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div/div[2]/div[2]/div/div/ul</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div/table/tbody</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div/div[2]/div/ul</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div/div[1]/div[1]</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div/table[1]</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div/table[2]/tbody/tr[1]/td[2]</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div/div[3]/div</t>
-  </si>
-  <si>
     <t>List of main diagnosis</t>
   </si>
   <si>
-    <t>List of DRG categories and therapeutic modalities in MDC</t>
-  </si>
-  <si>
-    <t>MDC name</t>
-  </si>
-  <si>
     <t>List of DRG basis in MDC</t>
   </si>
   <si>
     <t>MDC</t>
   </si>
   <si>
-    <t>Definiční listy</t>
-  </si>
-  <si>
-    <t>DRG category name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List of DRG basis in DRG category </t>
-  </si>
-  <si>
-    <t>DRG base</t>
-  </si>
-  <si>
-    <t>DRG category</t>
-  </si>
-  <si>
-    <t>DRG base name</t>
-  </si>
-  <si>
     <t>Type of DRG basis</t>
   </si>
   <si>
     <t>List of DRG groups in DRG base</t>
   </si>
   <si>
-    <t>//*[contains(@id,"rule")]/ul</t>
-  </si>
-  <si>
-    <t>Classification rules</t>
-  </si>
-  <si>
-    <t>//*[contains(@id,'panel')]//label/strong</t>
-  </si>
-  <si>
-    <t>//*[@id='classifier-form']/div/ul//li/a/text()</t>
-  </si>
-  <si>
     <t>Interaktívny klasifikátor (grouper)</t>
   </si>
   <si>
     <t xml:space="preserve">Section </t>
   </si>
   <si>
-    <t>/html/body/div[6]/div/div[3]/div/ul</t>
-  </si>
-  <si>
     <t>https://drg.uzis.cz/klasifikace-pripadu/web/definicni-manual/mdc09/</t>
   </si>
   <si>
@@ -160,13 +97,106 @@
   </si>
   <si>
     <t>https://drg.uzis.cz/klasifikace-pripadu/web/klasifikator/</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div/div/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[6]/div/div[1]/div[1]/h1/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[6]/div/div[3]/div/ul/li/ul/li/span[3]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[6]/div/div[2]/div/ul/li/a/span/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[6]/div/ul[2]/li/a/text()</t>
+  </si>
+  <si>
+    <t>Names of DRG groups in DRG base</t>
+  </si>
+  <si>
+    <t>/html/body/div[6]/div/div[2]/div[2]/div/div/ul/li/a/span/text()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of DRG categories </t>
+  </si>
+  <si>
+    <t>/html/body/div[6]/div/div[2]/div[2]/div/div/ul/li/ul/li/a/span/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[5]/form/div/ul/li/div/div/div/label/strong/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[5]/form/div/ul/li/a/text()</t>
+  </si>
+  <si>
+    <t>List of modalities in MDC</t>
+  </si>
+  <si>
+    <t>/html/body/div[6]/div/div[2]/div[1]/div/div/ul/li/a[2]/span[2]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[6]/div/div[2]/div[1]/div/div/ul/li/ul/li/span[2]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[6]/div/div[2]/div/ul/li/ul/li/span[3]/text()</t>
+  </si>
+  <si>
+    <t>Classification rules - disease</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>/html/body/div[6]/div/ul/li/a/text()</t>
+  </si>
+  <si>
+    <t>DRG category + DRG basis</t>
+  </si>
+  <si>
+    <t>List of DRG groups in DRG basis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of DRG modalities in DRG category </t>
+  </si>
+  <si>
+    <t>/html/body/div[6]/div/table[2]/tbody/tr[1]/td[2]/text()</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Classification tree MDC</t>
+  </si>
+  <si>
+    <t>Classification tree category</t>
+  </si>
+  <si>
+    <t>Classification tree basis</t>
+  </si>
+  <si>
+    <t>Classification tree group</t>
+  </si>
+  <si>
+    <t>/html/body/section/div/div/table[1]/tbody/tr[2]/td[3]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/section/div/div/table[1]/tbody/tr[4]/td[3]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/section/div/div/table[1]/tbody/tr[3]/td[3]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/section/div/div/table/tbody/tr[5]/td[2]/text()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,8 +238,17 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +264,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,35 +322,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -319,6 +382,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Hoa Vu Thu" id="{CE035705-9218-47F5-A35E-DCFB2D1F00C7}" userId="Hoa Vu Thu" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -616,23 +685,32 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C13" dT="2019-11-04T09:40:37.49" personId="{CE035705-9218-47F5-A35E-DCFB2D1F00C7}" id="{4DC590FA-333E-4846-9ABA-03F7D3145F8D}">
+    <text>1000 - list of modalities</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB72BC56-545D-48E4-91FB-55FC3A2F2A30}">
-  <dimension ref="A1:E52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB72BC56-545D-48E4-91FB-55FC3A2F2A30}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="A1:E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="56.5546875" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" customWidth="1"/>
+    <col min="4" max="4" width="0.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,329 +721,290 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="14"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="9">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D52" s="4"/>
+      <c r="D19" s="20"/>
+      <c r="F19" s="9">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="D2:D17"/>
+    <mergeCell ref="E3:E12"/>
     <mergeCell ref="E13:E17"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="D2:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F000C34A-488C-4F8A-ABC7-3148E55FC5A3}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{C075DFFD-DDFF-4D88-8D90-570A3303AFB4}"/>
-    <hyperlink ref="B9" r:id="rId3" xr:uid="{A4AB2B63-8F4D-4D2F-A8C3-0FC3E1D225AA}"/>
-    <hyperlink ref="B13" r:id="rId4" xr:uid="{3987F636-B4DC-4B43-8ABC-23689B0FA0B0}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{C075DFFD-DDFF-4D88-8D90-570A3303AFB4}"/>
+    <hyperlink ref="B13" r:id="rId3" xr:uid="{A4AB2B63-8F4D-4D2F-A8C3-0FC3E1D225AA}"/>
+    <hyperlink ref="B14" r:id="rId4" xr:uid="{3987F636-B4DC-4B43-8ABC-23689B0FA0B0}"/>
     <hyperlink ref="B18" r:id="rId5" xr:uid="{1D5AFBF5-CEC7-4C1D-B9A5-ACD1806DF79E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/drg/DRG-klasifikace-XPath.xlsx
+++ b/drg/DRG-klasifikace-XPath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoa\Documents\diplomka\drg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC271F05-3D05-40F7-A1A4-D6249D8D6DC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B529EC03-1C13-4577-86A4-5D496AD3690B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6F41D80A-DF8D-4D9E-B3AA-0F2DB9AFD36D}"/>
+    <workbookView xWindow="3780" yWindow="1572" windowWidth="17280" windowHeight="8976" xr2:uid="{6F41D80A-DF8D-4D9E-B3AA-0F2DB9AFD36D}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -180,9 +180,6 @@
     <t>Classification tree group</t>
   </si>
   <si>
-    <t>/html/body/section/div/div/table/tbody/tr[2]/td[3]/text()</t>
-  </si>
-  <si>
     <t>/html/body/section/div/div/table/tbody/tr[4]/td[3]/text()</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>/html/body/section/div/div/table/tbody/tr[5]/td[3]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/section/div/div/table/tbody/tr[2]/td[3]</t>
   </si>
 </sst>
 </file>
@@ -698,7 +698,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,7 +765,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="17" t="s">
@@ -779,7 +779,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="19" t="s">
@@ -793,7 +793,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="17" t="s">
@@ -807,7 +807,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="17" t="s">
